--- a/Backend/Model Metrics/metrics_rfc_CAP2_rrt.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP2_rrt.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9</v>
+        <v>0.8923556942277691</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9048991354466859</v>
+        <v>0.9014308426073132</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02941176470588235</v>
+        <v>0.07462686567164178</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9936708860759493</v>
+        <v>0.9878048780487805</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6340057636887607</v>
+        <v>0.8135930047694754</v>
       </c>
     </row>
   </sheetData>
